--- a/SchedulingData/dynamic12/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>258.1</v>
+        <v>216.34</v>
       </c>
       <c r="D2" t="n">
-        <v>331.92</v>
+        <v>265.26</v>
       </c>
       <c r="E2" t="n">
-        <v>11.428</v>
+        <v>15.084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>218</v>
+        <v>217.64</v>
       </c>
       <c r="D3" t="n">
-        <v>294.88</v>
+        <v>270.94</v>
       </c>
       <c r="E3" t="n">
-        <v>14.112</v>
+        <v>12.076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,89 +508,89 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>203.06</v>
+        <v>213.9</v>
       </c>
       <c r="D4" t="n">
-        <v>252.32</v>
+        <v>253.36</v>
       </c>
       <c r="E4" t="n">
-        <v>14.928</v>
+        <v>13.844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>331.92</v>
+        <v>253.36</v>
       </c>
       <c r="D5" t="n">
-        <v>401.22</v>
+        <v>297.42</v>
       </c>
       <c r="E5" t="n">
-        <v>7.588</v>
+        <v>10.568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>234.02</v>
+        <v>238.12</v>
       </c>
       <c r="D6" t="n">
-        <v>280.04</v>
+        <v>323.84</v>
       </c>
       <c r="E6" t="n">
-        <v>12.796</v>
+        <v>10.396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>280.04</v>
+        <v>297.42</v>
       </c>
       <c r="D7" t="n">
-        <v>341.86</v>
+        <v>342.04</v>
       </c>
       <c r="E7" t="n">
-        <v>9.724</v>
+        <v>8.236000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>294.88</v>
+        <v>265.26</v>
       </c>
       <c r="D8" t="n">
-        <v>354.32</v>
+        <v>331.98</v>
       </c>
       <c r="E8" t="n">
-        <v>10.808</v>
+        <v>12.012</v>
       </c>
     </row>
     <row r="9">
@@ -599,131 +599,131 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>210.22</v>
+        <v>323.84</v>
       </c>
       <c r="D9" t="n">
-        <v>256.76</v>
+        <v>370.84</v>
       </c>
       <c r="E9" t="n">
-        <v>12.024</v>
+        <v>7.316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>341.86</v>
+        <v>244.4</v>
       </c>
       <c r="D10" t="n">
-        <v>369.86</v>
+        <v>307.3</v>
       </c>
       <c r="E10" t="n">
-        <v>7.564</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>369.86</v>
+        <v>342.04</v>
       </c>
       <c r="D11" t="n">
-        <v>440.24</v>
+        <v>394.14</v>
       </c>
       <c r="E11" t="n">
-        <v>4.636</v>
+        <v>5.156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>256.76</v>
+        <v>218.72</v>
       </c>
       <c r="D12" t="n">
-        <v>298.86</v>
+        <v>286.02</v>
       </c>
       <c r="E12" t="n">
-        <v>8.944000000000001</v>
+        <v>13.028</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>217.14</v>
+        <v>307.3</v>
       </c>
       <c r="D13" t="n">
-        <v>268.48</v>
+        <v>364.1</v>
       </c>
       <c r="E13" t="n">
-        <v>11.832</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>354.32</v>
+        <v>270.94</v>
       </c>
       <c r="D14" t="n">
-        <v>409.48</v>
+        <v>333.46</v>
       </c>
       <c r="E14" t="n">
-        <v>8.432</v>
+        <v>8.423999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>252.32</v>
+        <v>331.98</v>
       </c>
       <c r="D15" t="n">
-        <v>295.86</v>
+        <v>373.8</v>
       </c>
       <c r="E15" t="n">
-        <v>11.704</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>295.86</v>
+        <v>364.1</v>
       </c>
       <c r="D16" t="n">
-        <v>357.32</v>
+        <v>405.64</v>
       </c>
       <c r="E16" t="n">
-        <v>8.167999999999999</v>
+        <v>3.036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>401.22</v>
+        <v>333.46</v>
       </c>
       <c r="D17" t="n">
-        <v>468.62</v>
+        <v>398.26</v>
       </c>
       <c r="E17" t="n">
-        <v>5.428</v>
+        <v>5.064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>268.48</v>
+        <v>370.84</v>
       </c>
       <c r="D18" t="n">
-        <v>320.38</v>
+        <v>423.34</v>
       </c>
       <c r="E18" t="n">
-        <v>8.752000000000001</v>
+        <v>5.156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>468.62</v>
+        <v>423.34</v>
       </c>
       <c r="D19" t="n">
-        <v>520.72</v>
+        <v>465.94</v>
       </c>
       <c r="E19" t="n">
-        <v>2.348</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="20">
@@ -808,131 +808,112 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>320.38</v>
+        <v>398.26</v>
       </c>
       <c r="D20" t="n">
-        <v>376.62</v>
+        <v>455.86</v>
       </c>
       <c r="E20" t="n">
-        <v>5.728</v>
+        <v>2.904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>298.86</v>
+        <v>286.02</v>
       </c>
       <c r="D21" t="n">
-        <v>361.26</v>
+        <v>354.84</v>
       </c>
       <c r="E21" t="n">
-        <v>5.304</v>
+        <v>9.276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>376.62</v>
+        <v>373.8</v>
       </c>
       <c r="D22" t="n">
-        <v>425.58</v>
+        <v>419.4</v>
       </c>
       <c r="E22" t="n">
-        <v>2.452</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>440.24</v>
+        <v>394.14</v>
       </c>
       <c r="D23" t="n">
-        <v>479.76</v>
+        <v>448.8</v>
       </c>
       <c r="E23" t="n">
-        <v>2.304</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>409.48</v>
+        <v>419.4</v>
       </c>
       <c r="D24" t="n">
-        <v>474</v>
+        <v>488.84</v>
       </c>
       <c r="E24" t="n">
-        <v>6.1</v>
+        <v>3.736</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>357.32</v>
+        <v>354.84</v>
       </c>
       <c r="D25" t="n">
-        <v>412.52</v>
+        <v>419.36</v>
       </c>
       <c r="E25" t="n">
-        <v>5.748</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>pond41</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>474</v>
-      </c>
-      <c r="D26" t="n">
-        <v>531.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.98</v>
+        <v>6.944</v>
       </c>
     </row>
   </sheetData>
